--- a/research/computer-science-articles.xlsx
+++ b/research/computer-science-articles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="254">
   <si>
     <t>subject</t>
   </si>
@@ -289,13 +289,502 @@
   </si>
   <si>
     <t>https://towardsdatascience.com/a-comprehensive-introduction-to-bayesian-deep-learning-1221d9a051de</t>
+  </si>
+  <si>
+    <t>A Primer in BERTology: What we know about how BERT works</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>Anna Rogers</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2002.12327</t>
+  </si>
+  <si>
+    <t>Top Applications of Graph Neural Networks</t>
+  </si>
+  <si>
+    <t>Sergei Ivanov</t>
+  </si>
+  <si>
+    <t>https://link.medium.com/7f3EBb4cTeb</t>
+  </si>
+  <si>
+    <t>Deep Dive Into Deep Learning</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>https://d2l.ai/</t>
+  </si>
+  <si>
+    <t>Causal Learning to Solve the ML Model Generalization Problem</t>
+  </si>
+  <si>
+    <t>https://medium.com/syncedreview/yoshua-bengio-team-proposes-causal-learning-to-solve-the-ml-model-generalization-problem-762c31b51e04</t>
+  </si>
+  <si>
+    <t>Dendritic Gated Network (DGN)</t>
+  </si>
+  <si>
+    <t>DGN</t>
+  </si>
+  <si>
+    <t>Eren Sezener</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/10.1101/2021.03.10.434756v1?fbclid=IwAR37NiQJ8RQD0kvwF_EbTVLgiYr0O1M1vrMtMC4kJ9hUzSuMtGhobTabAOU</t>
+  </si>
+  <si>
+    <t>A Novel Self-Supervised Learning Approach</t>
+  </si>
+  <si>
+    <t>Self-Supervised Learning</t>
+  </si>
+  <si>
+    <t>Kriti Maloo</t>
+  </si>
+  <si>
+    <t>https://www.marktechpost.com/2021/03/22/facebook-ai-in-collaboration-with-new-york-university-research-team-introduce-a-novel-self-supervised-learning-approach-for-computer-vision/?fbclid=IwAR2vpJK_ThqUpRpVEUSOe2HVplHZQomXA4JqF57plSyceLX57vfzHIXFceQ</t>
+  </si>
+  <si>
+    <t>Semi-Supervised Learning</t>
+  </si>
+  <si>
+    <t>Two Minutes of Semi-Supervised Learning</t>
+  </si>
+  <si>
+    <t>Jesus Rodriguez</t>
+  </si>
+  <si>
+    <t>https://medium.com/dataseries/two-minutes-of-semi-supervised-learning-f0eb62729530</t>
+  </si>
+  <si>
+    <t>Attention Is Not All You Need:</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>https://medium.com/syncedreview/attention-is-not-all-you-need-google-epfl-study-reveals-huge-inductive-biases-in-self-attention-fa3cdd060abe</t>
+  </si>
+  <si>
+    <t>Towards the end of deep learning and the beginning of AGI</t>
+  </si>
+  <si>
+    <t>Javier Ideami</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/towards-the-end-of-deep-learning-and-the-beginning-of-agi-d214d222c4cb</t>
+  </si>
+  <si>
+    <t>A Crash Course on Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Farnaz Adib</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2103.04910</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>Platform Of neuRal mOdels for natuRal language prOcessing (PORORO)</t>
+  </si>
+  <si>
+    <t>https://github.com/kakaobrain/pororo</t>
+  </si>
+  <si>
+    <t>Kakao Brain</t>
+  </si>
+  <si>
+    <t>Ensemble Learning: Bagging &amp; Boosting</t>
+  </si>
+  <si>
+    <t>Ensemble Learning</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/ensemble-learning-bagging-boosting-3098079e5422</t>
+  </si>
+  <si>
+    <t>Plotting in Python</t>
+  </si>
+  <si>
+    <t>Will Norris</t>
+  </si>
+  <si>
+    <t>https://levelup.gitconnected.com/plotting-in-python-work-smarter-not-harder-with-these-libraries-42b0be6b61f</t>
+  </si>
+  <si>
+    <t>Collaborative Filtering Simplified (Recommendation Systems)</t>
+  </si>
+  <si>
+    <t>Recommendation Systems</t>
+  </si>
+  <si>
+    <t>Sajan Gutta</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/collaborative-filtering-simplified-the-basic-science-behind-recommendation-systems-1d7e7c58cd8</t>
+  </si>
+  <si>
+    <t>7 Ground-Breaking Machine-Learning Books For Python</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/7-ground-breaking-machine-learning-books-for-python-ea6db967e36c</t>
+  </si>
+  <si>
+    <t>What’s Next For AI? Enter: Deep Reasoning</t>
+  </si>
+  <si>
+    <t>Deep Reasoning</t>
+  </si>
+  <si>
+    <t>Adar Kahiri</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/whats-next-for-ai-enter-deep-reasoning-fae8b131962a</t>
+  </si>
+  <si>
+    <t>https://deepnote.com/@tj/The-Starry-Cat-7HRaWnp8QhWYeK_x_QLD9Q</t>
+  </si>
+  <si>
+    <t>Style Transfer</t>
+  </si>
+  <si>
+    <t>The Starry Cat</t>
+  </si>
+  <si>
+    <t> Tejas Jain</t>
+  </si>
+  <si>
+    <t>Image Style Transfer Using Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t>Leon A. Gatys</t>
+  </si>
+  <si>
+    <t>https://www.cv-foundation.org/openaccess/content_cvpr_2016/papers/Gatys_Image_Style_Transfer_CVPR_2016_paper.pdf</t>
+  </si>
+  <si>
+    <t>Pretrained Transformers as Universal Computation Engines</t>
+  </si>
+  <si>
+    <t>Pieter Abbeel</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2103.05247</t>
+  </si>
+  <si>
+    <t>DLRM</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>High-performance, Distributed Training of Large-scale DL Recommendation Models</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2104.05158</t>
+  </si>
+  <si>
+    <t>A Neural Algorithm of Artistic Style</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1508.06576</t>
+  </si>
+  <si>
+    <t>Introduction to autoencoders.</t>
+  </si>
+  <si>
+    <t>Autoencoders</t>
+  </si>
+  <si>
+    <t>Jeremy Jordan</t>
+  </si>
+  <si>
+    <t>https://www.jeremyjordan.me/autoencoders/</t>
+  </si>
+  <si>
+    <t>An introduction to Kubernetes</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>Introduction to recurrent neural networks</t>
+  </si>
+  <si>
+    <t>https://www.jeremyjordan.me/introduction-to-recurrent-neural-networks/</t>
+  </si>
+  <si>
+    <t>Variational autoencoders</t>
+  </si>
+  <si>
+    <t>https://www.jeremyjordan.me/variational-autoencoders/</t>
+  </si>
+  <si>
+    <t>Overview of reinforcement learning</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>https://www.jeremyjordan.me/overview-of-reinforcement-learning/</t>
+  </si>
+  <si>
+    <t>Learning in a stochastic environment</t>
+  </si>
+  <si>
+    <t>https://www.jeremyjordan.me/rl-learning-methods/</t>
+  </si>
+  <si>
+    <t>Implementations of Monte Carlo and Temporal Difference learning</t>
+  </si>
+  <si>
+    <t>https://www.jeremyjordan.me/rl-learning-implementations/</t>
+  </si>
+  <si>
+    <t>https://www.jeremyjordan.me/markov-decision-process/</t>
+  </si>
+  <si>
+    <t>Planning in a stochastic environment</t>
+  </si>
+  <si>
+    <t>Principal components analysis (PCA)</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>https://www.jeremyjordan.me/principal-components-analysis/</t>
+  </si>
+  <si>
+    <t>Support vector machines</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>https://www.jeremyjordan.me/support-vector-machines/</t>
+  </si>
+  <si>
+    <t>https://www.jeremyjordan.me/logistic-regression/</t>
+  </si>
+  <si>
+    <t>https://www.jeremyjordan.me/linear-regression/</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Attention Is All You Need</t>
+  </si>
+  <si>
+    <t>Ashish Vaswani et al.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1706.03762</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>https://www.marktechpost.com/2021/04/22/time-travel-rephotography-an-ai-based-technique-using-stylegan2-framework-to-color-and-restyle-old-photographs/?fbclid=IwAR1E4fJHiVXUjX9s-8lE3bcKRf64nvdleEzzTqnKFLHDN-4he0SdRA2W8DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time-Travel Rephotography (StyleGAN2) </t>
+  </si>
+  <si>
+    <t>Tanushree Shenwai</t>
+  </si>
+  <si>
+    <t>https://github.com/NVlabs/stylegan2</t>
+  </si>
+  <si>
+    <t>StleGAN2</t>
+  </si>
+  <si>
+    <t>NVILabs</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/automate-microsoft-excel-and-word-using-python-ab92713b4ffe</t>
+  </si>
+  <si>
+    <t>Automate Microsoft Excel and Word using Python</t>
+  </si>
+  <si>
+    <t>M Khorasani</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/interpreting-semantic-text-similarity-from-transformer-models-ba1b08e6566c</t>
+  </si>
+  <si>
+    <t>Interpreting Semantic Text Similarity from Transformer Models</t>
+  </si>
+  <si>
+    <t>Mathias Gruber</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/3-tools-to-monitor-and-optimize-your-linux-system-c8a46c18d692</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Performance Monitoring</t>
+  </si>
+  <si>
+    <t>3 Tools to Monitor and Optimize your Linux System</t>
+  </si>
+  <si>
+    <t>Khuyen Tran</t>
+  </si>
+  <si>
+    <t>Boosting Natural Language Processing with Wikipedia</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/boosting-natural-language-processing-with-wikipedia-b779103ba396</t>
+  </si>
+  <si>
+    <t>Nicola Melluso</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/exploratory-data-analysis-with-pandas-508a5e8a5964</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis with pandas</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>Roman Orac</t>
+  </si>
+  <si>
+    <t>Python for Data Science- A Guide to Pandas</t>
+  </si>
+  <si>
+    <t>Nicholas Leong</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/python-for-data-science-basics-of-pandas-5f8d9680617e</t>
+  </si>
+  <si>
+    <t>Graph Attention Networks Under the Hood</t>
+  </si>
+  <si>
+    <t> Giuseppe Futia</t>
+  </si>
+  <si>
+    <t>https://www.topbots.com/graph-attention-networks-under-the-hood/</t>
+  </si>
+  <si>
+    <t>http://tkipf.github.io/graph-convolutional-networks/</t>
+  </si>
+  <si>
+    <t>Graph Convolutional Networks</t>
+  </si>
+  <si>
+    <t>Thomas Kipf</t>
+  </si>
+  <si>
+    <t>https://medium.com/inside-machine-learning/what-is-a-transformer-d07dd1fbec04</t>
+  </si>
+  <si>
+    <t>What is a Transformer?</t>
+  </si>
+  <si>
+    <t>Maxime</t>
+  </si>
+  <si>
+    <t>The Illustrated Transformer</t>
+  </si>
+  <si>
+    <t>Jay Alammar</t>
+  </si>
+  <si>
+    <t>http://jalammar.github.io/illustrated-transformer/</t>
+  </si>
+  <si>
+    <t>Visualizing A Neural Machine Translation Model</t>
+  </si>
+  <si>
+    <t>https://jalammar.github.io/visualizing-neural-machine-translation-mechanics-of-seq2seq-models-with-attention/</t>
+  </si>
+  <si>
+    <t>How Transformers work in deep learning and NLP</t>
+  </si>
+  <si>
+    <t>https://theaisummer.com/transformer/</t>
+  </si>
+  <si>
+    <t>https://pub.towardsai.net/understanding-pandas-melt-pd-melt-362954f8c125</t>
+  </si>
+  <si>
+    <t>Understanding Pandas Melt — pd.melt()</t>
+  </si>
+  <si>
+    <t>Towards AI Team</t>
+  </si>
+  <si>
+    <t>https://medium.com/analytics-vidhya/mlops-building-a-deep-learning-project-from-end-to-end-part-1-5ae1e6e76906</t>
+  </si>
+  <si>
+    <t>MLOPS-building a deep learning project from end to end (part-1)</t>
+  </si>
+  <si>
+    <t>Prathmesh Patil</t>
+  </si>
+  <si>
+    <t>https://python.plainenglish.io/8-data-structures-every-python-programmer-should-know-acafd46f479b</t>
+  </si>
+  <si>
+    <t>8 Data Structures Every Python Programmer Should Know</t>
+  </si>
+  <si>
+    <t>The Educative Team</t>
+  </si>
+  <si>
+    <t>https://keras.io/examples/nlp/text_classification_with_transformer/</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Text classification with Transformer (Keras Documentation)</t>
+  </si>
+  <si>
+    <t>Apoorv Nandan</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>nature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +806,20 @@
       <name val="Segoe UI Historic"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -335,15 +838,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -643,431 +1149,1775 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="174.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="70" customWidth="1"/>
+    <col min="5" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="206.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D37" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" t="s">
+        <v>163</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" t="s">
+        <v>198</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>203</v>
+      </c>
+      <c r="E61" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>206</v>
+      </c>
+      <c r="E62" t="s">
+        <v>207</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" t="s">
+        <v>212</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" t="s">
+        <v>213</v>
+      </c>
+      <c r="E64" t="s">
+        <v>215</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" t="s">
+        <v>217</v>
+      </c>
+      <c r="E65" t="s">
+        <v>219</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" t="s">
+        <v>221</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" t="s">
+        <v>224</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68" t="s">
+        <v>228</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" t="s">
+        <v>230</v>
+      </c>
+      <c r="E69" t="s">
+        <v>231</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>232</v>
+      </c>
+      <c r="E70" t="s">
+        <v>233</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" t="s">
+        <v>235</v>
+      </c>
+      <c r="E71" t="s">
+        <v>233</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>192</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" t="s">
+        <v>240</v>
+      </c>
+      <c r="E73" t="s">
+        <v>241</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C74" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D74" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" t="s">
+        <v>244</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C75" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D75" t="s">
+        <v>246</v>
+      </c>
+      <c r="E75" t="s">
+        <v>247</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>249</v>
+      </c>
+      <c r="B76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" t="s">
-        <v>90</v>
+      <c r="D76" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" t="s">
+        <v>251</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G58">
+    <sortCondition ref="G1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/research/computer-science-articles.xlsx
+++ b/research/computer-science-articles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="319">
   <si>
     <t>subject</t>
   </si>
@@ -618,9 +618,6 @@
     <t>https://github.com/NVlabs/stylegan2</t>
   </si>
   <si>
-    <t>StleGAN2</t>
-  </si>
-  <si>
     <t>NVILabs</t>
   </si>
   <si>
@@ -778,6 +775,204 @@
   </si>
   <si>
     <t>nature</t>
+  </si>
+  <si>
+    <t>https://medium.com/dev-genius/ansible-for-beginners-get-started-with-it-automation-670f0d852268</t>
+  </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>Ansible for beginners: get started with IT automation</t>
+  </si>
+  <si>
+    <t>StyleGAN2</t>
+  </si>
+  <si>
+    <t>https://python.plainenglish.io/how-to-read-qr-codes-in-python-159c1235f584</t>
+  </si>
+  <si>
+    <t>How to read QR codes in Python</t>
+  </si>
+  <si>
+    <t>Ryan Chou</t>
+  </si>
+  <si>
+    <t>https://purvanshimehta.medium.com/interview-resources-ml-data-science-ai-research-engineer-4703518d208e</t>
+  </si>
+  <si>
+    <t>Interview resources : ML/Data Science/AI Research Engineer</t>
+  </si>
+  <si>
+    <t>Purvanshi Mehta</t>
+  </si>
+  <si>
+    <t>https://medium.com/pat-inc/in-search-of-a-universal-knowledge-representation-9dfd690bbc7f</t>
+  </si>
+  <si>
+    <t>Knowledge Representation</t>
+  </si>
+  <si>
+    <t>In Search of a Universal Knowledge Representation</t>
+  </si>
+  <si>
+    <t>John Ball</t>
+  </si>
+  <si>
+    <t>https://sda-research.medium.com/5-knowledge-graph-embeddings-with-projective-transformations-aaai2021-c7a3f2adfbb7</t>
+  </si>
+  <si>
+    <t>Knowledge Graphs</t>
+  </si>
+  <si>
+    <t>5* Knowledge Graph Embeddings with Projective Transformations</t>
+  </si>
+  <si>
+    <t>SDA Research</t>
+  </si>
+  <si>
+    <t>https://medium.com/building-the-metaverse/the-metaverse-and-artificial-intelligence-ai-577343895411</t>
+  </si>
+  <si>
+    <t>Future Markets</t>
+  </si>
+  <si>
+    <t>The Metaverse and Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Jon Radoff</t>
+  </si>
+  <si>
+    <t>https://www.educative.io/blog/yaml-tutorial</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>YAML</t>
+  </si>
+  <si>
+    <t>YAML Tutorial: get started with YAML in 5 minutes</t>
+  </si>
+  <si>
+    <t>Ryan Thelin</t>
+  </si>
+  <si>
+    <t>https://www.educative.io/blog/kubernetes-deployments-pods-services</t>
+  </si>
+  <si>
+    <t>When to use Kubernetes deployments, pods, and services</t>
+  </si>
+  <si>
+    <t>Scott Coulton</t>
+  </si>
+  <si>
+    <t>https://www.educative.io/courses/practical-guide-to-kubernetes</t>
+  </si>
+  <si>
+    <t>A Practical Guide to Kubernetes</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Educative</t>
+  </si>
+  <si>
+    <t>https://www.educative.io/blog/deploying-my-first-service-on-kubernetes-demystifying-ingress</t>
+  </si>
+  <si>
+    <t>Deploying your first service on Kubernetes: Demystifying ingress</t>
+  </si>
+  <si>
+    <t>https://medium.com/analytics-vidhya/installing-elk-stack-in-docker-828df335e421</t>
+  </si>
+  <si>
+    <t>Installing ELK Stack in Docker</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Shelvi Garg</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/nine-emerging-python-libraries-you-should-add-to-your-data-science-toolkit-in-2021-85ce3d239846</t>
+  </si>
+  <si>
+    <t>Libraries</t>
+  </si>
+  <si>
+    <t>Nine Emerging Python Libraries You Should Add to Your Data Science Toolkit</t>
+  </si>
+  <si>
+    <t>Terence Shin</t>
+  </si>
+  <si>
+    <t>https://medium.com/dev-genius/as-a-tech-guy-you-will-thank-me-for-these-websites-be09e86ebcef</t>
+  </si>
+  <si>
+    <t>As a tech guy, you will thank me for these websites</t>
+  </si>
+  <si>
+    <t>Shoaib Mehedi</t>
+  </si>
+  <si>
+    <t>https://pub.towardsai.net/will-transformers-replace-cnns-in-computer-vision-55657a196833</t>
+  </si>
+  <si>
+    <t>Will Transformers Replace CNNs in Computer Vision?</t>
+  </si>
+  <si>
+    <t>Louis Bouchard</t>
+  </si>
+  <si>
+    <t>https://pub.towardsai.net/step-by-step-basic-understanding-of-neural-networks-with-keras-in-python-94f4afd026e5</t>
+  </si>
+  <si>
+    <t>Neural Networks</t>
+  </si>
+  <si>
+    <t>Step-by-Step Basic Understanding of Neural Networks with Keras in Python</t>
+  </si>
+  <si>
+    <t>Amit Chauhan</t>
+  </si>
+  <si>
+    <t>https://pub.towardsai.net/principal-component-analysis-in-dimensionality-reduction-with-python-1a613006d531</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis in Dimensionality Reduction with Python</t>
+  </si>
+  <si>
+    <t>https://pub.towardsai.net/fully-explained-linear-regression-with-python-fe2b313f32f3</t>
+  </si>
+  <si>
+    <t>Fully Explained Linear Regression with Python</t>
+  </si>
+  <si>
+    <t>https://pub.towardsai.net/fully-explained-logistic-regression-with-python-f4a16413ddcd</t>
+  </si>
+  <si>
+    <t>Fully Explained Logistic Regression with Python</t>
+  </si>
+  <si>
+    <t>https://blog.dominodatalab.com/natural-language-in-python-using-spacy/</t>
+  </si>
+  <si>
+    <t>Natural Language in Python using spaCy: An Introduction</t>
+  </si>
+  <si>
+    <t> Paco Nathan</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2006.08381</t>
+  </si>
+  <si>
+    <t>DreamCoder: Growing generalizable, interpretable knowledge</t>
+  </si>
+  <si>
+    <t>Joshua B. Tenenbaum</t>
   </si>
 </sst>
 </file>
@@ -1149,11 +1344,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1162,13 +1357,14 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="6" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="206.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1183,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2534,10 +2730,10 @@
         <v>146</v>
       </c>
       <c r="D60" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" t="s">
         <v>200</v>
-      </c>
-      <c r="E60" t="s">
-        <v>201</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2557,16 +2753,16 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" t="s">
         <v>203</v>
       </c>
-      <c r="E61" t="s">
-        <v>204</v>
-      </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2580,16 +2776,16 @@
         <v>31</v>
       </c>
       <c r="D62" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" t="s">
         <v>206</v>
       </c>
-      <c r="E62" t="s">
-        <v>207</v>
-      </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2597,22 +2793,22 @@
         <v>192</v>
       </c>
       <c r="B63" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" t="s">
         <v>209</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>210</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>211</v>
       </c>
-      <c r="E63" t="s">
-        <v>212</v>
-      </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2626,16 +2822,16 @@
         <v>125</v>
       </c>
       <c r="D64" t="s">
+        <v>212</v>
+      </c>
+      <c r="E64" t="s">
+        <v>214</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
         <v>213</v>
-      </c>
-      <c r="E64" t="s">
-        <v>215</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2646,19 +2842,19 @@
         <v>57</v>
       </c>
       <c r="C65" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" t="s">
+        <v>216</v>
+      </c>
+      <c r="E65" t="s">
         <v>218</v>
       </c>
-      <c r="D65" t="s">
-        <v>217</v>
-      </c>
-      <c r="E65" t="s">
-        <v>219</v>
-      </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2669,19 +2865,19 @@
         <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" t="s">
         <v>220</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
         <v>221</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2695,16 +2891,16 @@
         <v>42</v>
       </c>
       <c r="D67" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" t="s">
         <v>223</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
         <v>224</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2718,16 +2914,16 @@
         <v>42</v>
       </c>
       <c r="D68" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" t="s">
         <v>227</v>
       </c>
-      <c r="E68" t="s">
-        <v>228</v>
-      </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2741,16 +2937,16 @@
         <v>31</v>
       </c>
       <c r="D69" t="s">
+        <v>229</v>
+      </c>
+      <c r="E69" t="s">
         <v>230</v>
       </c>
-      <c r="E69" t="s">
-        <v>231</v>
-      </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2764,16 +2960,16 @@
         <v>31</v>
       </c>
       <c r="D70" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70" t="s">
         <v>232</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
         <v>233</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2787,16 +2983,16 @@
         <v>116</v>
       </c>
       <c r="D71" t="s">
+        <v>234</v>
+      </c>
+      <c r="E71" t="s">
+        <v>232</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
         <v>235</v>
-      </c>
-      <c r="E71" t="s">
-        <v>233</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2810,7 +3006,7 @@
         <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E72" t="s">
         <v>43</v>
@@ -2819,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2830,19 +3026,19 @@
         <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" t="s">
         <v>240</v>
       </c>
-      <c r="E73" t="s">
-        <v>241</v>
-      </c>
       <c r="F73">
-        <v>0</v>
+        <v>2021</v>
       </c>
       <c r="G73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2856,16 +3052,16 @@
         <v>19</v>
       </c>
       <c r="D74" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" t="s">
         <v>243</v>
       </c>
-      <c r="E74" t="s">
-        <v>244</v>
-      </c>
       <c r="F74">
-        <v>0</v>
+        <v>2021</v>
       </c>
       <c r="G74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2879,21 +3075,21 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
+        <v>245</v>
+      </c>
+      <c r="E75" t="s">
         <v>246</v>
       </c>
-      <c r="E75" t="s">
-        <v>247</v>
-      </c>
       <c r="F75">
-        <v>0</v>
+        <v>2021</v>
       </c>
       <c r="G75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B76" t="s">
         <v>32</v>
@@ -2902,16 +3098,473 @@
         <v>31</v>
       </c>
       <c r="D76" t="s">
+        <v>249</v>
+      </c>
+      <c r="E76" t="s">
         <v>250</v>
       </c>
-      <c r="E76" t="s">
-        <v>251</v>
-      </c>
       <c r="F76">
-        <v>0</v>
+        <v>2020</v>
       </c>
       <c r="G76" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>254</v>
+      </c>
+      <c r="D77" t="s">
+        <v>255</v>
+      </c>
+      <c r="E77" t="s">
+        <v>246</v>
+      </c>
+      <c r="F77">
+        <v>2021</v>
+      </c>
+      <c r="G77" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>258</v>
+      </c>
+      <c r="E78" t="s">
+        <v>259</v>
+      </c>
+      <c r="F78">
+        <v>2021</v>
+      </c>
+      <c r="G78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" t="s">
+        <v>261</v>
+      </c>
+      <c r="E79" t="s">
+        <v>262</v>
+      </c>
+      <c r="F79">
+        <v>2021</v>
+      </c>
+      <c r="G79" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" t="s">
+        <v>265</v>
+      </c>
+      <c r="E80" t="s">
+        <v>266</v>
+      </c>
+      <c r="F80">
+        <v>2021</v>
+      </c>
+      <c r="G80" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" t="s">
+        <v>268</v>
+      </c>
+      <c r="D81" t="s">
+        <v>269</v>
+      </c>
+      <c r="E81" t="s">
+        <v>270</v>
+      </c>
+      <c r="F81">
+        <v>2021</v>
+      </c>
+      <c r="G81" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" t="s">
+        <v>272</v>
+      </c>
+      <c r="D82" t="s">
+        <v>273</v>
+      </c>
+      <c r="E82" t="s">
+        <v>274</v>
+      </c>
+      <c r="F82">
+        <v>2021</v>
+      </c>
+      <c r="G82" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>276</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" t="s">
+        <v>278</v>
+      </c>
+      <c r="E83" t="s">
+        <v>279</v>
+      </c>
+      <c r="F83">
+        <v>2021</v>
+      </c>
+      <c r="G83" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>276</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" t="s">
+        <v>281</v>
+      </c>
+      <c r="E84" t="s">
+        <v>282</v>
+      </c>
+      <c r="F84">
+        <v>2020</v>
+      </c>
+      <c r="G84" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>285</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85" t="s">
+        <v>284</v>
+      </c>
+      <c r="E85" t="s">
+        <v>286</v>
+      </c>
+      <c r="G85" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>276</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" t="s">
+        <v>288</v>
+      </c>
+      <c r="E86" t="s">
+        <v>282</v>
+      </c>
+      <c r="F86">
+        <v>2019</v>
+      </c>
+      <c r="G86" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>291</v>
+      </c>
+      <c r="D87" t="s">
+        <v>290</v>
+      </c>
+      <c r="E87" t="s">
+        <v>292</v>
+      </c>
+      <c r="F87">
+        <v>2021</v>
+      </c>
+      <c r="G87" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" t="s">
+        <v>294</v>
+      </c>
+      <c r="D88" t="s">
+        <v>295</v>
+      </c>
+      <c r="E88" t="s">
+        <v>296</v>
+      </c>
+      <c r="F88">
+        <v>2021</v>
+      </c>
+      <c r="G88" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89" t="s">
+        <v>298</v>
+      </c>
+      <c r="E89" t="s">
+        <v>299</v>
+      </c>
+      <c r="F89">
+        <v>2021</v>
+      </c>
+      <c r="G89" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" t="s">
+        <v>301</v>
+      </c>
+      <c r="E90" t="s">
+        <v>302</v>
+      </c>
+      <c r="F90">
+        <v>2021</v>
+      </c>
+      <c r="G90" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" t="s">
+        <v>305</v>
+      </c>
+      <c r="E91" t="s">
+        <v>306</v>
+      </c>
+      <c r="F91">
+        <v>2021</v>
+      </c>
+      <c r="G91" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" t="s">
+        <v>308</v>
+      </c>
+      <c r="E92" t="s">
+        <v>306</v>
+      </c>
+      <c r="F92">
+        <v>2021</v>
+      </c>
+      <c r="G92" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" t="s">
+        <v>310</v>
+      </c>
+      <c r="E93" t="s">
+        <v>306</v>
+      </c>
+      <c r="F93">
+        <v>2021</v>
+      </c>
+      <c r="G93" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94" t="s">
+        <v>312</v>
+      </c>
+      <c r="E94" t="s">
+        <v>306</v>
+      </c>
+      <c r="F94">
+        <v>2021</v>
+      </c>
+      <c r="G94" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" t="s">
+        <v>125</v>
+      </c>
+      <c r="D95" t="s">
+        <v>314</v>
+      </c>
+      <c r="E95" t="s">
+        <v>315</v>
+      </c>
+      <c r="F95">
+        <v>2019</v>
+      </c>
+      <c r="G95" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" t="s">
+        <v>264</v>
+      </c>
+      <c r="D96" t="s">
+        <v>317</v>
+      </c>
+      <c r="E96" t="s">
+        <v>318</v>
+      </c>
+      <c r="F96">
+        <v>2020</v>
+      </c>
+      <c r="G96" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/research/computer-science-articles.xlsx
+++ b/research/computer-science-articles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="389">
   <si>
     <t>subject</t>
   </si>
@@ -186,12 +186,6 @@
     <t>Rajan Lab</t>
   </si>
   <si>
-    <t>Data Science Learning Resources</t>
-  </si>
-  <si>
-    <t>Data Science</t>
-  </si>
-  <si>
     <t>Resources</t>
   </si>
   <si>
@@ -675,9 +669,6 @@
     <t>Roman Orac</t>
   </si>
   <si>
-    <t>Python for Data Science- A Guide to Pandas</t>
-  </si>
-  <si>
     <t>Nicholas Leong</t>
   </si>
   <si>
@@ -801,9 +792,6 @@
     <t>https://purvanshimehta.medium.com/interview-resources-ml-data-science-ai-research-engineer-4703518d208e</t>
   </si>
   <si>
-    <t>Interview resources : ML/Data Science/AI Research Engineer</t>
-  </si>
-  <si>
     <t>Purvanshi Mehta</t>
   </si>
   <si>
@@ -903,9 +891,6 @@
     <t>Libraries</t>
   </si>
   <si>
-    <t>Nine Emerging Python Libraries You Should Add to Your Data Science Toolkit</t>
-  </si>
-  <si>
     <t>Terence Shin</t>
   </si>
   <si>
@@ -973,6 +958,231 @@
   </si>
   <si>
     <t>Joshua B. Tenenbaum</t>
+  </si>
+  <si>
+    <t>https://medium.com/syncedreview/microsoft-peking-u-researchers-identify-knowledge-neurons-in-pretrained-transformers-enabling-bfbe4c4a7491</t>
+  </si>
+  <si>
+    <t>Knowledge Neurons in Pretrained Transformers</t>
+  </si>
+  <si>
+    <t>https://levelup.gitconnected.com/crack-the-top-40-machine-learning-interview-questions-a7526335bcdc</t>
+  </si>
+  <si>
+    <t>Crack the top 40 machine learning interview questions</t>
+  </si>
+  <si>
+    <t>https://www.educative.io/courses/grokking-the-machine-learning-interview</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Grokking the Machine Learning Interview</t>
+  </si>
+  <si>
+    <t>https://medium.com/@shrutisaxena0617/precision-vs-recall-386cf9f89488#:~:text=Precision%20and%20recall%20are%20two,correctly%20classified%20by%20your%20algorithm.</t>
+  </si>
+  <si>
+    <t>Precision vs Recall</t>
+  </si>
+  <si>
+    <t>Precision and Recall</t>
+  </si>
+  <si>
+    <t>shruti saxena</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/accuracy-precision-recall-or-f1-331fb37c5cb9</t>
+  </si>
+  <si>
+    <t>Accuracy, Precision, Recall or F1?</t>
+  </si>
+  <si>
+    <t>Koo Ping Shung</t>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2020/09/precision-recall-machine-learning/</t>
+  </si>
+  <si>
+    <t>Precision vs. Recall – An Intuitive Guide</t>
+  </si>
+  <si>
+    <t>Purva Huilgol</t>
+  </si>
+  <si>
+    <t>Machine Learning Learning Resources</t>
+  </si>
+  <si>
+    <t>Python for Machine Learning- A Guide to Pandas</t>
+  </si>
+  <si>
+    <t>Interview resources : ML/Machine Learning/AI Research Engineer</t>
+  </si>
+  <si>
+    <t>Nine Emerging Python Libraries You Should Add to Your Machine Learning Toolkit</t>
+  </si>
+  <si>
+    <t>https://rukshanpramoditha.medium.com/11-dimensionality-reduction-techniques-you-should-know-in-2021-dcb9500d388b</t>
+  </si>
+  <si>
+    <t>Dimension Reduction</t>
+  </si>
+  <si>
+    <t>11 Dimensionality reduction techniques you should know in 2021</t>
+  </si>
+  <si>
+    <t>Rukshan Pramoditha</t>
+  </si>
+  <si>
+    <t>https://medium.com/techtofreedom/3-uses-of-the-ellipsis-in-python-25795aac723d</t>
+  </si>
+  <si>
+    <t>3 Uses of the Ellipsis in Python</t>
+  </si>
+  <si>
+    <t>Yang Zhou</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/understanding-pca-90f7b1961fa4</t>
+  </si>
+  <si>
+    <t>Understanding PCA</t>
+  </si>
+  <si>
+    <t>Tivadar Danka</t>
+  </si>
+  <si>
+    <t>https://eugeneyan.com/writing/search-query-matching/</t>
+  </si>
+  <si>
+    <t>Query Processing</t>
+  </si>
+  <si>
+    <t>Search: Query Matching via Lexical, Graph, and Embedding Methods</t>
+  </si>
+  <si>
+    <t>Eugene Yan</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/geometric-foundations-of-deep-learning-94cdd45b451d</t>
+  </si>
+  <si>
+    <t>Geometric Foundations</t>
+  </si>
+  <si>
+    <t>Geometric foundations of Deep Learning</t>
+  </si>
+  <si>
+    <t>Michael Bronstein</t>
+  </si>
+  <si>
+    <t>https://medium.com/pat-inc/using-meaning-as-universal-knowledge-representation-f4b2b72ea4e0</t>
+  </si>
+  <si>
+    <t>Using Meaning as Universal Knowledge Representation</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/image-captions-with-deep-learning-state-of-the-art-architectures-3290573712db</t>
+  </si>
+  <si>
+    <t>Image Caption</t>
+  </si>
+  <si>
+    <t>Image Captions with Deep Learning: State-of-the-Art Architectures</t>
+  </si>
+  <si>
+    <t>Ketan Doshi</t>
+  </si>
+  <si>
+    <t>https://explosion.ai/blog/spacy-transformers</t>
+  </si>
+  <si>
+    <t>spaCy meets Transformers: Fine-tune BERT, XLNet and GPT-2</t>
+  </si>
+  <si>
+    <t>MATTHEW HONNIBAL</t>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2020/03/spacy-tutorial-learn-natural-language-processing/</t>
+  </si>
+  <si>
+    <t>spaCy Tutorial to Learn and Master Natural Language Processing (NLP)</t>
+  </si>
+  <si>
+    <t>PRATEEK JOSHI</t>
+  </si>
+  <si>
+    <t>https://medium.com/python-concepts/introduction-nlp-natural-language-processing-with-spacy-using-python-e9bf885b9bf4</t>
+  </si>
+  <si>
+    <t>Divyesh Dharaiya</t>
+  </si>
+  <si>
+    <t>Introduction NLP (Natural Language Processing) With spaCy Using Python</t>
+  </si>
+  <si>
+    <t>https://realpython.com/natural-language-processing-spacy-python/</t>
+  </si>
+  <si>
+    <t>Natural Language Processing With spaCy in Python</t>
+  </si>
+  <si>
+    <t> Taranjeet Singh</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/bert-explained-state-of-the-art-language-model-for-nlp-f8b21a9b6270</t>
+  </si>
+  <si>
+    <t>BERT Explained: State of the art language model for NLP</t>
+  </si>
+  <si>
+    <t>Rani Horev</t>
+  </si>
+  <si>
+    <t>https://machinelearningmastery.com/introduction-to-style-generative-adversarial-network-stylegan/</t>
+  </si>
+  <si>
+    <t>A Gentle Introduction to StyleGAN the Style Generative Adversarial Network</t>
+  </si>
+  <si>
+    <t>Jason Brownlee</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1812.04948</t>
+  </si>
+  <si>
+    <t>A Style-Based Generator Architecture for Generative Adversarial Networks</t>
+  </si>
+  <si>
+    <t>Tero Karras</t>
+  </si>
+  <si>
+    <t>https://github.com/NVlabs/stylegan</t>
+  </si>
+  <si>
+    <t>StyleGAN — Official TensorFlow Implementation</t>
+  </si>
+  <si>
+    <t>NVDIA</t>
+  </si>
+  <si>
+    <t>https://heartbeat.fritz.ai/stylegans-use-machine-learning-to-generate-and-customize-realistic-images-c943388dc672</t>
+  </si>
+  <si>
+    <t>StyleGAN: Use machine learning to generate and customize realistic images</t>
+  </si>
+  <si>
+    <t>Jamshed Khan</t>
+  </si>
+  <si>
+    <t>Neural Style Transfer — Using Deep Learning to Generate Art</t>
+  </si>
+  <si>
+    <t>Prateek Karkare</t>
+  </si>
+  <si>
+    <t>https://medium.com/x8-the-ai-community/neural-style-transfer-using-deep-learning-to-generate-art-651d9ccf740c</t>
   </si>
 </sst>
 </file>
@@ -1344,11 +1554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1356,15 +1566,15 @@
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="70" customWidth="1"/>
+    <col min="4" max="4" width="76.77734375" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
     <col min="7" max="7" width="206.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1379,7 +1589,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1387,7 +1597,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -1410,99 +1620,99 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>189</v>
-      </c>
-      <c r="E4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>92</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -1511,21 +1721,21 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>152</v>
-      </c>
-      <c r="E7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -1548,59 +1758,59 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
         <v>155</v>
       </c>
-      <c r="D10" t="s">
-        <v>157</v>
-      </c>
       <c r="E10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>156</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1617,7 +1827,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1640,7 +1850,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
@@ -1649,44 +1859,44 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>98</v>
-      </c>
-      <c r="E13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" t="s">
         <v>146</v>
       </c>
-      <c r="D14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" t="s">
-        <v>148</v>
-      </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -1695,44 +1905,44 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
         <v>82</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>125</v>
-      </c>
-      <c r="D16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -1741,21 +1951,21 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
         <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -1778,7 +1988,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -1787,21 +1997,21 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
         <v>132</v>
-      </c>
-      <c r="E19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -1810,21 +2020,21 @@
         <v>42</v>
       </c>
       <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
         <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -1833,44 +2043,44 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
         <v>111</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
         <v>112</v>
-      </c>
-      <c r="E22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1893,53 +2103,53 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
         <v>115</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
         <v>61</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -1948,44 +2158,44 @@
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" t="s">
         <v>57</v>
       </c>
-      <c r="C27" t="s">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
         <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
@@ -2008,7 +2218,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -2031,7 +2241,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -2040,7 +2250,7 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
         <v>39</v>
@@ -2049,35 +2259,35 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
         <v>88</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
@@ -2086,53 +2296,53 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
         <v>76</v>
-      </c>
-      <c r="E32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
         <v>136</v>
-      </c>
-      <c r="D33" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -2141,12 +2351,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
@@ -2169,7 +2379,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -2192,7 +2402,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -2215,16 +2425,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
         <v>28</v>
@@ -2233,12 +2443,12 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -2261,145 +2471,145 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
         <v>118</v>
-      </c>
-      <c r="E40" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
       <c r="C41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
         <v>142</v>
-      </c>
-      <c r="D41" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
         <v>104</v>
-      </c>
-      <c r="D42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
         <v>149</v>
-      </c>
-      <c r="E43" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B44" t="s">
         <v>32</v>
       </c>
       <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
         <v>162</v>
-      </c>
-      <c r="D44" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
@@ -2408,274 +2618,274 @@
         <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
         <v>171</v>
-      </c>
-      <c r="E50" t="s">
-        <v>163</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
         <v>180</v>
-      </c>
-      <c r="E51" t="s">
-        <v>163</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" t="s">
         <v>172</v>
       </c>
-      <c r="C53" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" t="s">
-        <v>174</v>
-      </c>
       <c r="E53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
         <v>183</v>
-      </c>
-      <c r="E54" t="s">
-        <v>163</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B56" t="s">
         <v>32</v>
       </c>
       <c r="C56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
         <v>108</v>
-      </c>
-      <c r="D56" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B57" t="s">
         <v>32</v>
       </c>
       <c r="C57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
         <v>73</v>
-      </c>
-      <c r="D57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B58" t="s">
         <v>32</v>
@@ -2698,53 +2908,53 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E59" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E60" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
@@ -2753,21 +2963,21 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E61" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B62" t="s">
         <v>32</v>
@@ -2776,113 +2986,113 @@
         <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" t="s">
         <v>208</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>209</v>
       </c>
-      <c r="D63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E63" t="s">
-        <v>211</v>
-      </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" t="s">
         <v>212</v>
       </c>
-      <c r="E64" t="s">
-        <v>214</v>
-      </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D65" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" t="s">
         <v>216</v>
       </c>
-      <c r="E65" t="s">
-        <v>218</v>
-      </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" t="s">
+        <v>332</v>
+      </c>
+      <c r="E66" t="s">
         <v>217</v>
       </c>
-      <c r="D66" t="s">
-        <v>219</v>
-      </c>
-      <c r="E66" t="s">
-        <v>220</v>
-      </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B67" t="s">
         <v>32</v>
@@ -2891,21 +3101,21 @@
         <v>42</v>
       </c>
       <c r="D67" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E67" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B68" t="s">
         <v>32</v>
@@ -2914,21 +3124,21 @@
         <v>42</v>
       </c>
       <c r="D68" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E68" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B69" t="s">
         <v>32</v>
@@ -2937,21 +3147,21 @@
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E69" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B70" t="s">
         <v>32</v>
@@ -2960,44 +3170,44 @@
         <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B71" t="s">
         <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E71" t="s">
+        <v>229</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
         <v>232</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
         <v>32</v>
@@ -3006,7 +3216,7 @@
         <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E72" t="s">
         <v>43</v>
@@ -3015,35 +3225,35 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C73" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E73" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F73">
         <v>2021</v>
       </c>
       <c r="G73" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -3052,21 +3262,21 @@
         <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E74" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F74">
         <v>2021</v>
       </c>
       <c r="G74" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
@@ -3075,21 +3285,21 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E75" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F75">
         <v>2021</v>
       </c>
       <c r="G75" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B76" t="s">
         <v>32</v>
@@ -3098,44 +3308,44 @@
         <v>31</v>
       </c>
       <c r="D76" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E76" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F76">
         <v>2020</v>
       </c>
       <c r="G76" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D77" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E77" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F77">
         <v>2021</v>
       </c>
       <c r="G77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
@@ -3144,271 +3354,271 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F78">
         <v>2021</v>
       </c>
       <c r="G78" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B79" t="s">
         <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D79" t="s">
-        <v>261</v>
+        <v>333</v>
       </c>
       <c r="E79" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F79">
         <v>2021</v>
       </c>
       <c r="G79" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B80" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D80" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E80" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F80">
         <v>2021</v>
       </c>
       <c r="G80" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D81" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E81" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F81">
         <v>2021</v>
       </c>
       <c r="G81" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D82" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E82" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F82">
         <v>2021</v>
       </c>
       <c r="G82" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D83" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E83" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F83">
         <v>2021</v>
       </c>
       <c r="G83" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D84" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E84" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F84">
         <v>2020</v>
       </c>
       <c r="G84" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D85" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E85" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G85" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B86" t="s">
         <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D86" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E86" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F86">
         <v>2019</v>
       </c>
       <c r="G86" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B87" t="s">
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D87" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E87" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F87">
         <v>2021</v>
       </c>
       <c r="G87" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="E88" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F88">
         <v>2021</v>
       </c>
       <c r="G88" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
         <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D89" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E89" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F89">
         <v>2021</v>
       </c>
       <c r="G89" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B90" t="s">
         <v>32</v>
@@ -3417,154 +3627,685 @@
         <v>31</v>
       </c>
       <c r="D90" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E90" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F90">
         <v>2021</v>
       </c>
       <c r="G90" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B91" t="s">
         <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D91" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E91" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F91">
         <v>2021</v>
       </c>
       <c r="G91" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D92" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E92" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F92">
         <v>2021</v>
       </c>
       <c r="G92" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D93" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E93" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F93">
         <v>2021</v>
       </c>
       <c r="G93" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C94" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D94" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E94" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F94">
         <v>2021</v>
       </c>
       <c r="G94" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D95" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E95" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F95">
         <v>2019</v>
       </c>
       <c r="G95" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B96" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D96" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E96" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F96">
         <v>2020</v>
       </c>
       <c r="G96" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" t="s">
+        <v>315</v>
+      </c>
+      <c r="E97" t="s">
+        <v>60</v>
+      </c>
+      <c r="F97">
+        <v>2021</v>
+      </c>
+      <c r="G97" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" t="s">
+        <v>319</v>
+      </c>
+      <c r="D98" t="s">
+        <v>317</v>
+      </c>
+      <c r="E98" t="s">
+        <v>243</v>
+      </c>
+      <c r="F98">
+        <v>2021</v>
+      </c>
+      <c r="G98" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>281</v>
+      </c>
+      <c r="B99" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" t="s">
+        <v>319</v>
+      </c>
+      <c r="D99" t="s">
+        <v>320</v>
+      </c>
+      <c r="E99" t="s">
+        <v>243</v>
+      </c>
+      <c r="F99">
+        <v>2021</v>
+      </c>
+      <c r="G99" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" t="s">
+        <v>323</v>
+      </c>
+      <c r="D100" t="s">
+        <v>322</v>
+      </c>
+      <c r="E100" t="s">
+        <v>324</v>
+      </c>
+      <c r="F100">
+        <v>2018</v>
+      </c>
+      <c r="G100" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C101" t="s">
+        <v>323</v>
+      </c>
+      <c r="D101" t="s">
+        <v>326</v>
+      </c>
+      <c r="E101" t="s">
+        <v>327</v>
+      </c>
+      <c r="F101">
+        <v>2018</v>
+      </c>
+      <c r="G101" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" t="s">
+        <v>323</v>
+      </c>
+      <c r="D102" t="s">
+        <v>329</v>
+      </c>
+      <c r="E102" t="s">
+        <v>330</v>
+      </c>
+      <c r="F102">
+        <v>2020</v>
+      </c>
+      <c r="G102" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" t="s">
+        <v>336</v>
+      </c>
+      <c r="D103" t="s">
+        <v>337</v>
+      </c>
+      <c r="E103" t="s">
+        <v>338</v>
+      </c>
+      <c r="F103">
+        <v>2021</v>
+      </c>
+      <c r="G103" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>340</v>
+      </c>
+      <c r="E104" t="s">
+        <v>341</v>
+      </c>
+      <c r="F104">
+        <v>2021</v>
+      </c>
+      <c r="G104" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C105" t="s">
+        <v>179</v>
+      </c>
+      <c r="D105" t="s">
+        <v>343</v>
+      </c>
+      <c r="E105" t="s">
+        <v>344</v>
+      </c>
+      <c r="F105">
+        <v>2021</v>
+      </c>
+      <c r="G105" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>190</v>
+      </c>
+      <c r="B106" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106" t="s">
+        <v>346</v>
+      </c>
+      <c r="D106" t="s">
+        <v>347</v>
+      </c>
+      <c r="E106" t="s">
+        <v>348</v>
+      </c>
+      <c r="F106">
+        <f t="shared" ref="F106:F107" si="0">$F$105</f>
+        <v>2021</v>
+      </c>
+      <c r="G106" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>190</v>
+      </c>
+      <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
+        <v>350</v>
+      </c>
+      <c r="D107" t="s">
+        <v>351</v>
+      </c>
+      <c r="E107" t="s">
+        <v>352</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="G107" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>190</v>
+      </c>
+      <c r="B108" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" t="s">
+        <v>260</v>
+      </c>
+      <c r="D108" t="s">
+        <v>354</v>
+      </c>
+      <c r="E108" t="s">
+        <v>262</v>
+      </c>
+      <c r="F108">
+        <v>2021</v>
+      </c>
+      <c r="G108" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>190</v>
+      </c>
+      <c r="B109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" t="s">
+        <v>356</v>
+      </c>
+      <c r="D109" t="s">
+        <v>357</v>
+      </c>
+      <c r="E109" t="s">
+        <v>358</v>
+      </c>
+      <c r="F109">
+        <v>2021</v>
+      </c>
+      <c r="G109" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" t="s">
+        <v>360</v>
+      </c>
+      <c r="E110" t="s">
+        <v>361</v>
+      </c>
+      <c r="F110">
+        <v>2019</v>
+      </c>
+      <c r="G110" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>190</v>
+      </c>
+      <c r="B111" t="s">
+        <v>170</v>
+      </c>
+      <c r="C111" t="s">
+        <v>123</v>
+      </c>
+      <c r="D111" t="s">
+        <v>363</v>
+      </c>
+      <c r="E111" t="s">
+        <v>364</v>
+      </c>
+      <c r="F111">
+        <v>2020</v>
+      </c>
+      <c r="G111" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>190</v>
+      </c>
+      <c r="B112" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" t="s">
+        <v>367</v>
+      </c>
+      <c r="E112" t="s">
+        <v>366</v>
+      </c>
+      <c r="F112">
+        <v>2020</v>
+      </c>
+      <c r="G112" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>272</v>
+      </c>
+      <c r="B113" t="s">
+        <v>170</v>
+      </c>
+      <c r="C113" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" t="s">
+        <v>369</v>
+      </c>
+      <c r="E113" t="s">
+        <v>370</v>
+      </c>
+      <c r="F113">
+        <v>2020</v>
+      </c>
+      <c r="G113" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" t="s">
+        <v>31</v>
+      </c>
+      <c r="D114" t="s">
+        <v>372</v>
+      </c>
+      <c r="E114" t="s">
+        <v>373</v>
+      </c>
+      <c r="F114">
+        <v>2018</v>
+      </c>
+      <c r="G114" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>190</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115" t="s">
+        <v>375</v>
+      </c>
+      <c r="E115" t="s">
+        <v>376</v>
+      </c>
+      <c r="F115">
+        <v>2020</v>
+      </c>
+      <c r="G115" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" t="s">
+        <v>144</v>
+      </c>
+      <c r="D116" t="s">
+        <v>378</v>
+      </c>
+      <c r="E116" t="s">
+        <v>379</v>
+      </c>
+      <c r="F116">
+        <v>2019</v>
+      </c>
+      <c r="G116" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>193</v>
+      </c>
+      <c r="B117" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117" t="s">
+        <v>144</v>
+      </c>
+      <c r="D117" t="s">
+        <v>381</v>
+      </c>
+      <c r="E117" t="s">
+        <v>382</v>
+      </c>
+      <c r="F117">
+        <v>2019</v>
+      </c>
+      <c r="G117" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>190</v>
+      </c>
+      <c r="B118" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" t="s">
+        <v>384</v>
+      </c>
+      <c r="E118" t="s">
+        <v>385</v>
+      </c>
+      <c r="F118">
+        <v>2019</v>
+      </c>
+      <c r="G118" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>190</v>
+      </c>
+      <c r="B119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" t="s">
+        <v>144</v>
+      </c>
+      <c r="D119" t="s">
+        <v>386</v>
+      </c>
+      <c r="E119" t="s">
+        <v>387</v>
+      </c>
+      <c r="F119">
+        <v>2019</v>
+      </c>
+      <c r="G119" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/research/computer-science-articles.xlsx
+++ b/research/computer-science-articles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5012" uniqueCount="2212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5210" uniqueCount="2293">
   <si>
     <t>subject</t>
   </si>
@@ -6652,6 +6652,249 @@
   </si>
   <si>
     <t>Vannevar Bush</t>
+  </si>
+  <si>
+    <t>https://distill.pub/2020/growing-ca/</t>
+  </si>
+  <si>
+    <t>Growing Neural Cellular Automata</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2108.03332</t>
+  </si>
+  <si>
+    <t>Embodied AI</t>
+  </si>
+  <si>
+    <t>BEHAVIOR: Benchmark for Everyday Household Activities</t>
+  </si>
+  <si>
+    <t>StanfordUniversity</t>
+  </si>
+  <si>
+    <t>https://medium.com/syncedreview/stanfords-behavior-benchmarks-100-activities-from-everyday-life-for-embodied-ai-ad7443c078b1</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1702.08431</t>
+  </si>
+  <si>
+    <t>Boundary-Seeking Generative Adversarial Networks</t>
+  </si>
+  <si>
+    <t>University of Montreal</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2007.03780</t>
+  </si>
+  <si>
+    <t>SofGAN: A Portrait Image Generator with Dynamic Styling</t>
+  </si>
+  <si>
+    <t>ShanghaiTech University</t>
+  </si>
+  <si>
+    <t>https://www.marktechpost.com/2021/09/04/ai-researchers-from-shanghaitech-and-uc-san-diego-introduce-sofgan-a-portrait-image-generator-with-dynamic-styling/</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2104.00670</t>
+  </si>
+  <si>
+    <t>Unconstrained Scene Generation with Locally Conditioned Radiance Fields</t>
+  </si>
+  <si>
+    <t>https://www.marktechpost.com/2021/09/04/apples-machine-learning-team-introduces-gsn-a-generative-model-which-learns-to-synthesize-radiance-fields-of-indoor-scenes/</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2108.11482</t>
+  </si>
+  <si>
+    <t>ETA Prediction with Graph Neural Networks in Google Maps</t>
+  </si>
+  <si>
+    <t>https://www.marktechpost.com/2021/09/03/ai-researchers-introduce-a-graph-neural-network-estimator-for-eta-prediction-at-google-maps/</t>
+  </si>
+  <si>
+    <t>https://blog.einstein.ai/warpdrive-fast-rl-on-a-gpu/</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2108.13976</t>
+  </si>
+  <si>
+    <t>WarpDrive: Extremely Fast End-to-End Deep Multi-Agent Reinforcement Learning on a GPU</t>
+  </si>
+  <si>
+    <t>SalesForce</t>
+  </si>
+  <si>
+    <t>https://www.marktechpost.com/2021/09/03/salesforce-open-sources-warpdrive-a-light-weight-reinforcement-learning-rl-framework-that-implements-end-to-end-multi-agent-rl-on-a-single-gpu/</t>
+  </si>
+  <si>
+    <t>https://mariefleursacreste.medium.com/</t>
+  </si>
+  <si>
+    <t>How we built an AI factory — Part 1</t>
+  </si>
+  <si>
+    <t>Marie-Fleur Sacreste</t>
+  </si>
+  <si>
+    <t>https://circleci.com/blog/package-a-clojure-web-application-using-docker/</t>
+  </si>
+  <si>
+    <t>Clojure</t>
+  </si>
+  <si>
+    <t>Package a Clojure web application using Docker</t>
+  </si>
+  <si>
+    <t>Chris Howe-Jones</t>
+  </si>
+  <si>
+    <t>https://hub.docker.com/_/clojure</t>
+  </si>
+  <si>
+    <t>Docker Clojure</t>
+  </si>
+  <si>
+    <t>DockerHub</t>
+  </si>
+  <si>
+    <t>https://www.karimarttila.fi/clojure/2020/08/29/use-clojure-with-docker-and-kubernetes.html</t>
+  </si>
+  <si>
+    <t>Use Clojure with Docker and Kubernetes</t>
+  </si>
+  <si>
+    <t>Kari Marttila</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/longest-common-subsequence-dp-4/</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>GeeksForGeeks</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Overlapping Subproblems Property in Dynamic Programming | DP-1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/overlapping-subproblems-property-in-dynamic-programming-dp-1/</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence | DP-4</t>
+  </si>
+  <si>
+    <t>Optimal Substructure Property in Dynamic Programming | DP-2</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/optimal-substructure-property-in-dynamic-programming-dp-2/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/longest-increasing-subsequence-dp-3/</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence | DP-3</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1307.1905</t>
+  </si>
+  <si>
+    <t>A Dynamic Algorithm for the Longest Common Subsequence Problem</t>
+  </si>
+  <si>
+    <t>Arindam Chaudhuri</t>
+  </si>
+  <si>
+    <t>https://www.programiz.com/dsa/longest-common-subsequence</t>
+  </si>
+  <si>
+    <t>Programiz</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2108.08877</t>
+  </si>
+  <si>
+    <t>Sentence-T5: Scalable Sentence Encoders from Pre-trained Text-to-Text Models</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2108.10197</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>Deploying a BERT-based Query-Title Relevance Classifier in a Production System</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2109.00725</t>
+  </si>
+  <si>
+    <t>Causal Inference</t>
+  </si>
+  <si>
+    <t>Causal Inference in Natural Language Processing</t>
+  </si>
+  <si>
+    <t>TMTL</t>
+  </si>
+  <si>
+    <t>Activation Atlases</t>
+  </si>
+  <si>
+    <t>https://distill.pub/2019/activation-atlas/</t>
+  </si>
+  <si>
+    <t>Exploring Neural Networks with Activation Atlases</t>
+  </si>
+  <si>
+    <t>https://jrodthoughts.medium.com/activation-atlases-is-a-machine-learning-interpretability-model-used-by-google-and-openai-1059aaef6472</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/354157969_Deep_Reinforcement_Learning_in_Computer_Vision_A_Comprehensive_Survey</t>
+  </si>
+  <si>
+    <t>Deep Reinforcement Learning in Computer Vision: A Comprehensive Survey</t>
+  </si>
+  <si>
+    <t>University of Arkansas</t>
+  </si>
+  <si>
+    <t>https://medium.com/containermind/a-beginners-guide-to-kubernetes-7e8ca56420b6</t>
+  </si>
+  <si>
+    <t>A Beginner’s Guide to Kubernetes</t>
+  </si>
+  <si>
+    <t>Imesh Gunaratne</t>
+  </si>
+  <si>
+    <t>https://www.freecodecamp.org/news/learn-kubernetes-in-under-3-hours-a-detailed-guide-to-orchestrating-containers-114ff420e882/</t>
+  </si>
+  <si>
+    <t>Learn Kubernetes in Under 3 Hours: A Detailed Guide to Orchestrating Containers</t>
+  </si>
+  <si>
+    <t>FreeCodeCamp</t>
+  </si>
+  <si>
+    <t>https://medium.com/analytics-vidhya/deploy-your-first-deep-learning-model-on-kubernetes-with-python-keras-flask-and-docker-575dc07d9e76</t>
+  </si>
+  <si>
+    <t>Deploy Your First Deep Learning Model On Kubernetes With Python, Keras, Flask, and Docker</t>
+  </si>
+  <si>
+    <t>https://book.mlcompendium.com/</t>
+  </si>
+  <si>
+    <t>The Machine &amp; Deep Learning Compendium: An open knowledge-sharing project</t>
+  </si>
+  <si>
+    <t>Ori Cohen</t>
   </si>
 </sst>
 </file>
@@ -7060,23 +7303,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I771"/>
+  <dimension ref="A1:I804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A745" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D772" sqref="D772"/>
+      <pane ySplit="1" topLeftCell="A783" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D805" sqref="D805"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="77.109375" customWidth="1"/>
     <col min="5" max="5" width="26.21875" customWidth="1"/>
     <col min="6" max="6" width="8.21875" style="6" customWidth="1"/>
     <col min="7" max="7" width="10" style="6" customWidth="1"/>
-    <col min="8" max="8" width="127.44140625" customWidth="1"/>
+    <col min="8" max="8" width="146.77734375" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28123,7 +28366,7 @@
     </row>
     <row r="766" spans="1:8">
       <c r="A766" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B766" t="s">
         <v>32</v>
@@ -28149,7 +28392,7 @@
     </row>
     <row r="767" spans="1:8">
       <c r="A767" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B767" t="s">
         <v>32</v>
@@ -28275,6 +28518,864 @@
       </c>
       <c r="H771" t="s">
         <v>2209</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8">
+      <c r="A772" t="s">
+        <v>188</v>
+      </c>
+      <c r="B772" t="s">
+        <v>167</v>
+      </c>
+      <c r="C772" t="s">
+        <v>488</v>
+      </c>
+      <c r="D772" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E772" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F772" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G772" s="6">
+        <v>10</v>
+      </c>
+      <c r="H772" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8">
+      <c r="A773" t="s">
+        <v>188</v>
+      </c>
+      <c r="B773" t="s">
+        <v>65</v>
+      </c>
+      <c r="C773" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D773" t="s">
+        <v>2216</v>
+      </c>
+      <c r="E773" t="s">
+        <v>2217</v>
+      </c>
+      <c r="F773" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G773" s="6">
+        <v>33</v>
+      </c>
+      <c r="H773" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8">
+      <c r="A774" t="s">
+        <v>187</v>
+      </c>
+      <c r="B774" t="s">
+        <v>65</v>
+      </c>
+      <c r="C774" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D774" t="s">
+        <v>2216</v>
+      </c>
+      <c r="E774" t="s">
+        <v>59</v>
+      </c>
+      <c r="F774" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G774" s="6">
+        <v>4</v>
+      </c>
+      <c r="H774" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8">
+      <c r="A775" t="s">
+        <v>188</v>
+      </c>
+      <c r="B775" t="s">
+        <v>32</v>
+      </c>
+      <c r="C775" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D775" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E775" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F775" s="6">
+        <v>2018</v>
+      </c>
+      <c r="G775" s="6">
+        <v>17</v>
+      </c>
+      <c r="H775" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8">
+      <c r="A776" t="s">
+        <v>188</v>
+      </c>
+      <c r="B776" t="s">
+        <v>32</v>
+      </c>
+      <c r="C776" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D776" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E776" t="s">
+        <v>2224</v>
+      </c>
+      <c r="F776" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G776" s="6">
+        <v>26</v>
+      </c>
+      <c r="H776" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8">
+      <c r="A777" t="s">
+        <v>187</v>
+      </c>
+      <c r="B777" t="s">
+        <v>32</v>
+      </c>
+      <c r="C777" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D777" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F777" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G777" s="6">
+        <v>5</v>
+      </c>
+      <c r="H777" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8">
+      <c r="A778" t="s">
+        <v>188</v>
+      </c>
+      <c r="B778" t="s">
+        <v>32</v>
+      </c>
+      <c r="C778" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D778" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E778" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F778" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G778" s="6">
+        <v>17</v>
+      </c>
+      <c r="H778" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8">
+      <c r="A779" t="s">
+        <v>187</v>
+      </c>
+      <c r="B779" t="s">
+        <v>32</v>
+      </c>
+      <c r="C779" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D779" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E779" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F779" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G779" s="6">
+        <v>5</v>
+      </c>
+      <c r="H779" s="4" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8">
+      <c r="A780" t="s">
+        <v>188</v>
+      </c>
+      <c r="B780" t="s">
+        <v>32</v>
+      </c>
+      <c r="C780" t="s">
+        <v>42</v>
+      </c>
+      <c r="D780" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E780" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F780" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G780" s="6">
+        <v>10</v>
+      </c>
+      <c r="H780" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8">
+      <c r="A781" t="s">
+        <v>187</v>
+      </c>
+      <c r="B781" t="s">
+        <v>32</v>
+      </c>
+      <c r="C781" t="s">
+        <v>42</v>
+      </c>
+      <c r="D781" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E781" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F781" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G781" s="6">
+        <v>5</v>
+      </c>
+      <c r="H781" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8">
+      <c r="A782" t="s">
+        <v>675</v>
+      </c>
+      <c r="B782" t="s">
+        <v>65</v>
+      </c>
+      <c r="C782" t="s">
+        <v>117</v>
+      </c>
+      <c r="D782" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E782" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F782" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G782" s="6">
+        <v>8</v>
+      </c>
+      <c r="H782" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8">
+      <c r="A783" t="s">
+        <v>188</v>
+      </c>
+      <c r="B783" t="s">
+        <v>65</v>
+      </c>
+      <c r="C783" t="s">
+        <v>117</v>
+      </c>
+      <c r="D783" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E783" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F783" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G783" s="6">
+        <v>14</v>
+      </c>
+      <c r="H783" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8">
+      <c r="A784" t="s">
+        <v>187</v>
+      </c>
+      <c r="B784" t="s">
+        <v>65</v>
+      </c>
+      <c r="C784" t="s">
+        <v>117</v>
+      </c>
+      <c r="D784" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E784" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F784" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G784" s="6">
+        <v>6</v>
+      </c>
+      <c r="H784" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8">
+      <c r="A785" t="s">
+        <v>187</v>
+      </c>
+      <c r="B785" t="s">
+        <v>167</v>
+      </c>
+      <c r="C785" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D785" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E785" t="s">
+        <v>2239</v>
+      </c>
+      <c r="F785" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G785" s="6">
+        <v>7</v>
+      </c>
+      <c r="H785" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8">
+      <c r="A786" t="s">
+        <v>187</v>
+      </c>
+      <c r="B786" t="s">
+        <v>13</v>
+      </c>
+      <c r="C786" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D786" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E786" t="s">
+        <v>2243</v>
+      </c>
+      <c r="F786" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G786" s="6">
+        <v>10</v>
+      </c>
+      <c r="H786" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8">
+      <c r="A787" t="s">
+        <v>241</v>
+      </c>
+      <c r="B787" t="s">
+        <v>18</v>
+      </c>
+      <c r="C787" t="s">
+        <v>283</v>
+      </c>
+      <c r="D787" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E787" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F787" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G787" s="6">
+        <v>5</v>
+      </c>
+      <c r="H787" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8">
+      <c r="A788" t="s">
+        <v>187</v>
+      </c>
+      <c r="B788" t="s">
+        <v>13</v>
+      </c>
+      <c r="C788" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D788" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E788" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F788" s="6">
+        <v>2020</v>
+      </c>
+      <c r="G788" s="6">
+        <v>8</v>
+      </c>
+      <c r="H788" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8">
+      <c r="A789" t="s">
+        <v>187</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C789" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D789" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E789" t="s">
+        <v>2252</v>
+      </c>
+      <c r="F789" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G789" s="6">
+        <v>8</v>
+      </c>
+      <c r="H789" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8">
+      <c r="A790" t="s">
+        <v>187</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C790" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D790" t="s">
+        <v>2257</v>
+      </c>
+      <c r="E790" t="s">
+        <v>2252</v>
+      </c>
+      <c r="F790" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G790" s="6">
+        <v>8</v>
+      </c>
+      <c r="H790" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8">
+      <c r="A791" t="s">
+        <v>187</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C791" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D791" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E791" t="s">
+        <v>2252</v>
+      </c>
+      <c r="F791" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G791" s="6">
+        <v>8</v>
+      </c>
+      <c r="H791" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8">
+      <c r="A792" t="s">
+        <v>187</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C792" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D792" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E792" t="s">
+        <v>2252</v>
+      </c>
+      <c r="F792" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G792" s="6">
+        <v>8</v>
+      </c>
+      <c r="H792" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8">
+      <c r="A793" t="s">
+        <v>188</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C793" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D793" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E793" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F793" s="6">
+        <v>2013</v>
+      </c>
+      <c r="G793" s="6">
+        <v>23</v>
+      </c>
+      <c r="H793" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8">
+      <c r="A794" t="s">
+        <v>268</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C794" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D794" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E794" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F794" s="6">
+        <v>2020</v>
+      </c>
+      <c r="G794" s="6">
+        <v>8</v>
+      </c>
+      <c r="H794" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8">
+      <c r="A795" t="s">
+        <v>188</v>
+      </c>
+      <c r="B795" t="s">
+        <v>65</v>
+      </c>
+      <c r="C795" t="s">
+        <v>120</v>
+      </c>
+      <c r="D795" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E795" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F795" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G795" s="6">
+        <v>10</v>
+      </c>
+      <c r="H795" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8">
+      <c r="A796" t="s">
+        <v>188</v>
+      </c>
+      <c r="B796" t="s">
+        <v>65</v>
+      </c>
+      <c r="C796" t="s">
+        <v>120</v>
+      </c>
+      <c r="D796" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E796" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F796" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G796" s="6">
+        <v>5</v>
+      </c>
+      <c r="H796" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8">
+      <c r="A797" t="s">
+        <v>188</v>
+      </c>
+      <c r="B797" t="s">
+        <v>65</v>
+      </c>
+      <c r="C797" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D797" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E797" t="s">
+        <v>2274</v>
+      </c>
+      <c r="F797" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G797" s="6">
+        <v>17</v>
+      </c>
+      <c r="H797" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8">
+      <c r="A798" t="s">
+        <v>188</v>
+      </c>
+      <c r="B798" t="s">
+        <v>32</v>
+      </c>
+      <c r="C798" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D798" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E798" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F798" s="6">
+        <v>2019</v>
+      </c>
+      <c r="G798" s="6">
+        <v>10</v>
+      </c>
+      <c r="H798" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8">
+      <c r="A799" t="s">
+        <v>187</v>
+      </c>
+      <c r="B799" t="s">
+        <v>32</v>
+      </c>
+      <c r="C799" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D799" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E799" t="s">
+        <v>108</v>
+      </c>
+      <c r="F799" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G799" s="6">
+        <v>5</v>
+      </c>
+      <c r="H799" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8">
+      <c r="A800" t="s">
+        <v>188</v>
+      </c>
+      <c r="B800" t="s">
+        <v>65</v>
+      </c>
+      <c r="C800" t="s">
+        <v>117</v>
+      </c>
+      <c r="D800" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E800" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F800" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G800" s="6">
+        <v>104</v>
+      </c>
+      <c r="H800" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8">
+      <c r="A801" t="s">
+        <v>187</v>
+      </c>
+      <c r="B801" t="s">
+        <v>18</v>
+      </c>
+      <c r="C801" t="s">
+        <v>161</v>
+      </c>
+      <c r="D801" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E801" t="s">
+        <v>2284</v>
+      </c>
+      <c r="F801" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G801" s="6">
+        <v>15</v>
+      </c>
+      <c r="H801" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8">
+      <c r="A802" t="s">
+        <v>187</v>
+      </c>
+      <c r="B802" t="s">
+        <v>18</v>
+      </c>
+      <c r="C802" t="s">
+        <v>161</v>
+      </c>
+      <c r="D802" t="s">
+        <v>2286</v>
+      </c>
+      <c r="E802" t="s">
+        <v>2287</v>
+      </c>
+      <c r="F802" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G802" s="6">
+        <v>20</v>
+      </c>
+      <c r="H802" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8">
+      <c r="A803" t="s">
+        <v>187</v>
+      </c>
+      <c r="B803" t="s">
+        <v>18</v>
+      </c>
+      <c r="C803" t="s">
+        <v>161</v>
+      </c>
+      <c r="D803" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E803" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F803" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G803" s="6">
+        <v>12</v>
+      </c>
+      <c r="H803" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8">
+      <c r="A804" t="s">
+        <v>190</v>
+      </c>
+      <c r="B804" t="s">
+        <v>167</v>
+      </c>
+      <c r="C804" t="s">
+        <v>55</v>
+      </c>
+      <c r="D804" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E804" t="s">
+        <v>2292</v>
+      </c>
+      <c r="F804" s="6">
+        <v>2021</v>
+      </c>
+      <c r="G804" s="6">
+        <v>400</v>
+      </c>
+      <c r="H804" t="s">
+        <v>2290</v>
       </c>
     </row>
   </sheetData>
@@ -28674,9 +29775,10 @@
     <hyperlink ref="H647" r:id="rId390"/>
     <hyperlink ref="H683" r:id="rId391"/>
     <hyperlink ref="H692" r:id="rId392"/>
+    <hyperlink ref="H779" r:id="rId393"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId393"/>
+  <pageSetup orientation="portrait" r:id="rId394"/>
 </worksheet>
 </file>
 
